--- a/data/Información_Datos_FA.xlsx
+++ b/data/Información_Datos_FA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Santos\Desktop\Fiebre_amarilla\dashboard_casos_fa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC989A-C1BB-4CA0-823B-AE7CFC3FF7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D79C97-6EC0-4FC3-A96F-9A98A9FDFA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="50">
   <si>
     <t>MUNICIPIO</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>POSITIVO FA</t>
-  </si>
-  <si>
-    <t>EN ESTUDIO</t>
   </si>
   <si>
     <t xml:space="preserve">PROVENIENTE </t>
@@ -788,13 +785,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I45" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
-  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="POSITIVO FA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
     <sortCondition ref="C1:C41"/>
   </sortState>
@@ -1011,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I989"/>
+  <dimension ref="A1:I988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -1041,36 +1032,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C2" s="7">
         <v>45696</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -1079,23 +1070,23 @@
         <v>45698</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7">
         <v>45711</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -1104,23 +1095,23 @@
         <v>45711</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7">
         <v>45746</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>4</v>
@@ -1129,23 +1120,23 @@
         <v>45749</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
         <v>45749</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>4</v>
@@ -1154,23 +1145,23 @@
         <v>45749</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
         <v>45749</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>4</v>
@@ -1179,23 +1170,23 @@
         <v>45748</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="10">
         <v>45753</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>4</v>
@@ -1204,23 +1195,23 @@
         <v>45753</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10">
         <v>45754</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -1229,23 +1220,23 @@
         <v>45753</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="10">
         <v>45755</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -1254,23 +1245,23 @@
         <v>45755</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10">
         <v>45755</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -1279,23 +1270,23 @@
         <v>45755</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10">
         <v>45755</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -1304,23 +1295,23 @@
         <v>45755</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10">
         <v>45757</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1329,23 +1320,23 @@
         <v>45755</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10">
         <v>45758</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>4</v>
@@ -1354,23 +1345,23 @@
         <v>45755</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="10">
         <v>45759</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1379,23 +1370,23 @@
         <v>45761</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="10">
         <v>45759</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1404,23 +1395,23 @@
         <v>45759</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10">
         <v>45761</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
@@ -1429,23 +1420,23 @@
         <v>45761</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="10">
         <v>45761</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>4</v>
@@ -1454,23 +1445,23 @@
         <v>45761</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="10">
         <v>45761</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1479,23 +1470,23 @@
         <v>45773</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="10">
         <v>45761</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>4</v>
@@ -1504,23 +1495,23 @@
         <v>45773</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="10">
         <v>45761</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1529,23 +1520,23 @@
         <v>45773</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="10">
         <v>45763</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1554,23 +1545,23 @@
         <v>45763</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="10">
         <v>45763</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1579,23 +1570,23 @@
         <v>45763</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C23" s="10">
         <v>45763</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
@@ -1604,23 +1595,23 @@
         <v>45763</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="10">
         <v>45766</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>4</v>
@@ -1629,23 +1620,23 @@
         <v>45763</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="10">
         <v>45766</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
@@ -1654,23 +1645,23 @@
         <v>45766</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="10">
         <v>45766</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -1679,23 +1670,23 @@
         <v>45766</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="10">
         <v>45766</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
@@ -1704,23 +1695,23 @@
         <v>45765</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="10">
         <v>45768</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>4</v>
@@ -1729,23 +1720,23 @@
         <v>45769</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="10">
         <v>45768</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>4</v>
@@ -1754,23 +1745,23 @@
         <v>45769</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="10">
         <v>45768</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>4</v>
@@ -1779,23 +1770,23 @@
         <v>45769</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="10">
         <v>45773</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>4</v>
@@ -1804,23 +1795,23 @@
         <v>45773</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="10">
         <v>45775</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1829,23 +1820,23 @@
         <v>45773</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="10">
         <v>45779</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>4</v>
@@ -1854,23 +1845,23 @@
         <v>45779</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" s="20" customFormat="1" ht="14.25" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="16">
         <v>45786</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>4</v>
@@ -1879,23 +1870,23 @@
         <v>45785</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
         <v>45790</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>4</v>
@@ -1904,23 +1895,23 @@
         <v>45790</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>45790</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>4</v>
@@ -1929,23 +1920,23 @@
         <v>45790</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2">
         <v>45792</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>4</v>
@@ -1954,23 +1945,23 @@
         <v>45789</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="2">
         <v>45794</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>4</v>
@@ -1979,23 +1970,23 @@
         <v>45797</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
         <v>45802</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>4</v>
@@ -2004,23 +1995,23 @@
         <v>45802</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11">
         <v>45815</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>4</v>
@@ -2029,23 +2020,23 @@
         <v>45814</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1">
       <c r="A41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C41" s="11">
         <v>45835</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>4</v>
@@ -2054,107 +2045,107 @@
         <v>45835</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:9" ht="14.25" customHeight="1">
       <c r="A42" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C42" s="4">
         <v>45840</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="4">
         <v>45840</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:9" ht="14.25" customHeight="1">
       <c r="A43" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C43" s="4">
         <v>45840</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="4">
         <v>45840</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1">
       <c r="A44" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C44" s="4">
         <v>45840</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="4">
         <v>45840</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:9" ht="14.25" customHeight="1">
       <c r="A45" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C45" s="4">
         <v>45840</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="4">
         <v>45840</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
@@ -6873,11 +6864,6 @@
       <c r="B988" s="12"/>
       <c r="C988" s="12"/>
       <c r="D988" s="12"/>
-    </row>
-    <row r="989" spans="2:4" ht="14.25" customHeight="1">
-      <c r="B989" s="12"/>
-      <c r="C989" s="12"/>
-      <c r="D989" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
